--- a/backlog/backlog.xlsx
+++ b/backlog/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Payam\Documents\GitHub\payameno\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6C161B-A6F9-459E-B3E3-F3561CF87794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E58EDC-8EDA-4A27-99EE-E3C5F33E5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>ردیف</t>
   </si>
@@ -76,6 +76,33 @@
   </si>
   <si>
     <t>مشکل  پرینت خلاصه وضعیت مالی</t>
+  </si>
+  <si>
+    <t>مشکل پرینت معافیت تحصیلی</t>
+  </si>
+  <si>
+    <t>404-07-29</t>
+  </si>
+  <si>
+    <t>پشتیبانی و بازیابی - تنظیمات</t>
+  </si>
+  <si>
+    <t>پشتیبانی درست  - بازیابی ایراد دارد -</t>
+  </si>
+  <si>
+    <t>404-08-02</t>
+  </si>
+  <si>
+    <t>اصلاح ظاهر صفحه تنظیمات</t>
+  </si>
+  <si>
+    <t>بازیابی پایگاه داده - تنظیمات</t>
+  </si>
+  <si>
+    <t>اصلاح ظاهر صفحه دروس</t>
+  </si>
+  <si>
+    <t>اصلاح ظاهر گزارشات</t>
   </si>
 </sst>
 </file>
@@ -189,8 +216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}" name="Table1" displayName="Table1" ref="A1:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G6" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G12" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5CCAB5B4-B8F6-4E04-8E8E-709BF9E424BB}" name="ردیف" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{0E71090F-41A5-4A44-9408-17E26EA70184}" name="تاریخ" dataDxfId="5"/>
@@ -467,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +508,7 @@
     <col min="4" max="4" width="9.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="22.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -609,6 +636,129 @@
       </c>
       <c r="F6" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/backlog/backlog.xlsx
+++ b/backlog/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Payam\Documents\GitHub\payameno\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E58EDC-8EDA-4A27-99EE-E3C5F33E5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEDCB0B-C5A1-4CD9-866C-0243F3D9E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>ردیف</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>اصلاح ظاهر گزارشات</t>
+  </si>
+  <si>
+    <t>404-08-12</t>
+  </si>
+  <si>
+    <t>اصلاحات مربوط به تعداد رشته های زیاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اصلاح پایگاه داده فیلد فعال - اصلاح کوئری ها - </t>
+  </si>
+  <si>
+    <t>فعال سازی و غیر فعال سازی رشته ها</t>
   </si>
 </sst>
 </file>
@@ -216,8 +228,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G12" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}" name="Table1" displayName="Table1" ref="A1:G14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G14" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5CCAB5B4-B8F6-4E04-8E8E-709BF9E424BB}" name="ردیف" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{0E71090F-41A5-4A44-9408-17E26EA70184}" name="تاریخ" dataDxfId="5"/>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,6 +773,49 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/backlog/backlog.xlsx
+++ b/backlog/backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Payam\Documents\GitHub\payameno\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEDCB0B-C5A1-4CD9-866C-0243F3D9E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062F0F61-444F-4C47-977D-531F8B9D6806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>ردیف</t>
   </si>
@@ -54,9 +54,6 @@
     <t>اولویت</t>
   </si>
   <si>
-    <t>ساعت پیشنهادی</t>
-  </si>
-  <si>
     <t>اصلاح فونت هدر به B nazanin</t>
   </si>
   <si>
@@ -115,6 +112,27 @@
   </si>
   <si>
     <t>فعال سازی و غیر فعال سازی رشته ها</t>
+  </si>
+  <si>
+    <t>404-08-19</t>
+  </si>
+  <si>
+    <t>تحلیل و طراحی ماژول درخواست کمیسون خاص</t>
+  </si>
+  <si>
+    <t>افزودن درس های رشته</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساعت </t>
+  </si>
+  <si>
+    <t>40-08-20</t>
+  </si>
+  <si>
+    <t>اصلاح ساختار دیتابیس  - فایل ایجاد دیتابیس</t>
+  </si>
+  <si>
+    <t>هنوز تمام نشده</t>
   </si>
 </sst>
 </file>
@@ -138,12 +156,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,12 +182,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -228,15 +255,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}" name="Table1" displayName="Table1" ref="A1:G14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G14" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}" name="Table1" displayName="Table1" ref="A1:G17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G17" xr:uid="{A7CE2822-90C9-4845-9557-7296864ED1A3}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5CCAB5B4-B8F6-4E04-8E8E-709BF9E424BB}" name="ردیف" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{0E71090F-41A5-4A44-9408-17E26EA70184}" name="تاریخ" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{DA820218-4974-44C9-858E-19A0318F2364}" name="عنوان" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{4FD54302-5E4E-4989-9E1D-64B973EAC6C3}" name="وضعیت" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{8F1D9276-7B1C-4BEB-9842-3140C2439E35}" name="اولویت" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4A8543D8-8F07-4BA4-A595-9252DE96ACAA}" name="ساعت پیشنهادی" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{4A8543D8-8F07-4BA4-A595-9252DE96ACAA}" name="ساعت " dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{3C6FC730-7287-478A-8EE0-C134C624090D}" name="توضیح" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -506,17 +533,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="22.5703125" style="2" customWidth="1"/>
@@ -541,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -558,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -567,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -578,10 +605,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -598,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -618,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -635,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -655,13 +682,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -675,13 +702,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -690,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,10 +725,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -718,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -738,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -758,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -778,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -793,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -801,19 +828,79 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
         <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/backlog/backlog.xlsx
+++ b/backlog/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Payam\Documents\GitHub\payameno\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062F0F61-444F-4C47-977D-531F8B9D6806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47B06C1-4984-46B4-A901-03BF0107B0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>تحلیل و طراحی ماژول درخواست کمیسون خاص</t>
   </si>
   <si>
-    <t>افزودن درس های رشته</t>
-  </si>
-  <si>
     <t xml:space="preserve">ساعت </t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>هنوز تمام نشده</t>
+  </si>
+  <si>
+    <t>افزودن درس های رشته  و انتقال از درس به درس</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -870,37 +870,40 @@
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
